--- a/biology/Médecine/Centre_hospitalier_de_Lons-le-Saunier/Centre_hospitalier_de_Lons-le-Saunier.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_Lons-le-Saunier/Centre_hospitalier_de_Lons-le-Saunier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre Hospitalier Jura Sud de Lons-le-Saunier est un centre hospitalier construit autour de l'Hôtel-Dieu de Lons-le-Saunier, dans le Jura, en Franche-Comté.
 L'Hôtel-Dieu fut le premier hôpital de Lons, construit en 1735.
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bâtiment est situé au centre-ville de Lons-le-Saunier. Il est plus précisément situé au numéro 55 de la Rue du Docteur Jean Michel.
 </t>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Hôtel-Dieu de Lons-le-Saunier et son apothicairerie
-XVII-XVIIIe s.
+          <t>L'Hôtel-Dieu de Lons-le-Saunier et son apothicairerie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">XVII-XVIIIe s.
 L'histoire des hôpitaux de Lons-le-Saunier est ancienne. On peut aisément la faire remonter au XIIe s. Dès cette date, des documents l'attestent, il existait plusieurs bâtiments (maladrerie, léproserie, ...) dont la fonction était de venir en aide aux pauvres. Il ne s'agit pas d'en dresser l'inventaire, ni d'en conter l'histoire, mais plutôt de les considérer comme les ancêtres de l'actuel Hôtel-Dieu. Il convient en fait de s'intéresser aux traces encore visibles dans la ville des structures qui ont fonctionné avant la construction de ce dernier : dès le Moyen-Age, mais surtout au XVIe s, fonctionnait un hôpital, sous les arcades, l'actuelle rue du Commerce, appelé Hôpital des Reliques, parce qu'il abrita, pendant les guerres de conquête, au XVIIe s., les reliques du Saint Patron de la ville : Saint-Désiré. De cet hôpital, incendié en 1637, il subsiste quelques traces dans une cour intérieure. Devenu insuffisant, on lui substitua, en 1689, un autre bâtiment au cœur du faubourg Saint-Désiré à l'emplacement de l'actuelle Banque Nationale de Paris. A cette date, l'hôpital n'accueillait que douze malades et, malgré les agrandissements successifs, il devint insuffisant. C'est la raison pour laquelle, dès la fin du XVIIe s., on cherchait activement un emplacement susceptible d'accueillir ,'le nouvel Hôtel-Dieu". La ville proposa à cet effet un vaste terrain juste en face de l'Hôtel de Ville, récemment construit, baptisé faubourg du Louvatan. Il restait alors à trouver un architecte et de l'argent.
 Jean-Pierre GALZOT ayant juste achevé l'Hôtel de Ville et "se trouvant en résidence à Château-Chalon", il fut convié à venir tracer l'épure du nouveau bâtiment. Il s'inspira, car bisontin de naissance, de l'Hôpital Saint-Jacques de Besançon -et il dirigea les travaux avec un autre architecte, Maître Michel. Ces derniers durèrent dix ans car le souci majeur durant cette période fut de trouver de l'argent. On eut, pour ce faire, recours à des solutions originales, en sollicitant les bienfaiteurs, en multipliant les ventes, et en allant même jusqu'à tirer des loteries. Finalement achevé, le bâtiment fut béni le 1er août  cette occasion, une cloche, la plus ancienne de la ville, fut posée dans le petit clocher à six pans rapporté de l'ancien hôpital du faubourg afin qu'il témoignât de la pérennité de la fonction hospitalière à Lons-le-Saunier. Ce n'est pas le seul élément d'architecture intéressant extérieurement, il convient de s'attarder sur les grilles et sur le grand escalier.
 Les grilles, qui sont classées Monument Historique, ont été posées entre 1771 et 1778, après avoir été réalisées par deux ferronniers jurassiens, dont un Lédonien. Elles coûtèrent à elles seules une année de budget, raison pour laquelle elles furent posées presque quarante ans après l'inauguration de l'Hôtel-Dieu.
@@ -566,22 +585,162 @@
 Enfin, dans cette pièce est exposée une partie de la collection de livres andens conservés dans l'apothicairerie. Il s'agit, pour la plupart, d'ouvrages des XVIIe et XVIIIe s., traitant de remèdes ou de maladies et qui témoignent, par leur achat l'année même de leur parution, quelquefois même en souscription, du souci de la Supérieure de se tenir informée des dernières nouveautés médicales.
 Les trois pièces, Entrée, Salon et Laboratoire forment un remarquable ensemble, bien conservé, qui évoque à merveille les usages médicaux d'Ancien Régime, voire du XIXe s. De surcroit, l'art y est omniprésent, ce qui contribue à faire de l'apothicairerie de l'Hôtel-Dieu de Lons-le-Saunier l'une des plus belles.
 Remarque : dans l'ancien réfectoire des sœurs a été installée en 1982, une autre pharmacie, dite "Oeuvre du Bouillon". Il s'agissait d'une œuvre charitable privée, de Dole, dont le mobilier a été légué à cette date à l'hôpital de Lons par la descendante de la fondatrice de l'œuvre. Là, le décor est beaucoup plus simple : les boiseries furent réalisées en chêne de la forêt de Chaux, les faïences sont issues de petits ateliers, et sont sans valeur. Mais c'est normal. S'agissant d •une œuvre de bienfaisance privée, qui avant de prodiguer des soins médicaux venait surtout en aide aux pauvres en leur apportant un "bouillon", la nécessité esthétique ne se faisait pas sentir et surtout n'était pas même envisagée.
-1735 : L'Hôtel-Dieu, premier hôpital à Lons-le-Saunier
-La construction de l'hôpital a été envisagée en 1735. La première pierre fut posée le premier septembre 1735, les travaux de maçonnerie commencèrent au printemps 1736 par les voûtes de magnifiques souterrains. On prit la pierre à Pymont, Messia, Montciel, Mancy. Le reste venait de Frontenay. Pendant les deux premières années, les travaux de maçonnerie ont marché très lentement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lons-le-Saunier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lons-le-Saunier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1735 : L'Hôtel-Dieu, premier hôpital à Lons-le-Saunier</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La construction de l'hôpital a été envisagée en 1735. La première pierre fut posée le premier septembre 1735, les travaux de maçonnerie commencèrent au printemps 1736 par les voûtes de magnifiques souterrains. On prit la pierre à Pymont, Messia, Montciel, Mancy. Le reste venait de Frontenay. Pendant les deux premières années, les travaux de maçonnerie ont marché très lentement.
 Le grand escalier fut construit entièrement en 1741. En 1742, ce fut l'escalier de la terrasse, celui qui à l'ouest descend du jardin. On voûta aussi la cuisine. Toute la ferronnerie se posait alors, elle venait de Fraisans. La charpente, de Clairvaux et de Bonlieu.
 On replaça le clocher qui était sur l'hôpital du faubourg (rue Saint-Désiré) sur le nouvel immeuble. La bénédiction de la maison, de la chapelle et du cimetière adjacent se fit mercredi 1er août 1745.
 On ferma la cour de l'hôpital en 1743 par un mur peu élevé en pierres de taille, destiné à recevoir une grille. La grille ne fut posée que 36 ans plus tard. L'argent manquait. En 1779, la grille, ainsi que les rampes du grand escalier et de l'escalier du jardin furent enfin posées.
 La dépense pour l'immeuble s'éleva à 78 562 livres, 11 sols, 3 deniers. Au total avec la grille et les rampes : 83 695 livres, 6 sols, 3 deniers.
 Le nouvel hôpital comprenait deux grandes salles, l'une pour les femmes, l'autre pour les hommes. Il y avait des chambres d'hôte qui devaient être au rez-de-chaussée, à gauche avant le grand escalier. Il y avait une chapelle, une pharmacie, une cuisine, et des autres salles affectées à des usages divers. Derrière la maison s'étendait un clos et une propriété. C'était une de ces tanneries si nombreuses à Lons-le-Saunier. La tannerie devint en 1769 une buanderie publique puis devint la buanderie de l'hôpital.
-XIXe siècle : l'âge des constructions
-Le XIXe et XXe siècles sont pour notre hôpital surtout l'âge des constructeurs. Les deux ailes Nord et Sud, l'une à peu près perpendiculaire à la route de Villeneuve, l'autre aboutissant à la rue Regard, l'aile le long de la route de Villeneuve, la buanderie sont du XIXe siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lons-le-Saunier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lons-le-Saunier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>XIXe siècle : l'âge des constructions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le XIXe et XXe siècles sont pour notre hôpital surtout l'âge des constructeurs. Les deux ailes Nord et Sud, l'une à peu près perpendiculaire à la route de Villeneuve, l'autre aboutissant à la rue Regard, l'aile le long de la route de Villeneuve, la buanderie sont du XIXe siècle.
 Après vingt ans d'existence, l'hôpital se révélait déjà insuffisant. Il fallut mettre les paillasses sur les planchers, loger les malades dans la chapelle. Le 25 janvier 1828, on dressa les plans pour la construction d'un nouvel immeuble. Les travaux commencèrent le 11 octobre 1829, la réception définitive se fit le 3 février 1843, un siècle après l'achèvement du grand bâtiment.
 Six ans après, on songeait déjà à une nouvelle construction. Les travaux commencèrent en 1865. Ils firent achevés en juillet 1868. Monsieur Regard ayant fait à l'hôpital des dons importants, on donna son nom à la rue où aboutissait l'aile Sud. En 1897, une salle d'opération fut construite. Les opérations se faisaient au premier étage de l'aile Sud, à l'extrémité de la salle Saint-Charles.
 Extrait de notes rédigées par le Dr Jean-Michel Bonjean et M. Dominique Brunet.
-XXe siècle : Le pavillon des enfants assistés et le pavillon Pasteur sont construits
-Le 26 mai 1923, le pavillon Pasteur fut inauguré.
-2004 - 2008 : construction d'un nouveau bâtiment pour les urgences et le laboratoire
-En 2004, dans le cadre de son projet d'établissement prévoyant la restructuration des urgences complètement engorgées, des extensions capacitaires, et la modernisation de son laboratoire, le Centre hospitalier de Lons-le-Saunier a engagé la construction d'un bâtiment de 6 739 m2 sur 4 niveaux, surmonté d'une héli-station en terrasse, et destiné à abriter :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lons-le-Saunier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lons-le-Saunier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>XXe siècle : Le pavillon des enfants assistés et le pavillon Pasteur sont construits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 26 mai 1923, le pavillon Pasteur fut inauguré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lons-le-Saunier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lons-le-Saunier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2004 - 2008 : construction d'un nouveau bâtiment pour les urgences et le laboratoire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004, dans le cadre de son projet d'établissement prévoyant la restructuration des urgences complètement engorgées, des extensions capacitaires, et la modernisation de son laboratoire, le Centre hospitalier de Lons-le-Saunier a engagé la construction d'un bâtiment de 6 739 m2 sur 4 niveaux, surmonté d'une héli-station en terrasse, et destiné à abriter :
 le service des urgences ;
 le laboratoire ;
 un service de médecine ;
@@ -591,34 +750,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Centre_hospitalier_de_Lons-le-Saunier</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lons-le-Saunier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Équipement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plateau technique
-Le Centre Hospitalier Jura Sud de Lons-le-Saunier concentre :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plateau technique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Centre Hospitalier Jura Sud de Lons-le-Saunier concentre :
 le plateau technique le plus complet du territoire du Jura Sud, avec notamment :
 un service de réanimation ;
 une unité de surveillance continue cardiologique ;
@@ -630,9 +794,43 @@
 une maternité de niveau 2B réalisant 1 100 accouchements ;
 un service de pédiatrie et une unité de néonatologie ;
 le service d'urgences de référence du territoire, siège du SAMU 39 (à l'exception de la régulation Centre 15 assurée par le SAMU 25) avec 35 000 entrées en 2016 ;
-le pôle gériatrique dispose de lits de médecine, de soins de suite, d'une unité de séjour longue durée et d'un établissement d'hébergement pour personnes âgées dépendantes (EHPAD). Des consultations mémoire et un hôpital de jour accueillent les personnes âgées.
-Répartition des lits
-Médecine : 176
+le pôle gériatrique dispose de lits de médecine, de soins de suite, d'une unité de séjour longue durée et d'un établissement d'hébergement pour personnes âgées dépendantes (EHPAD). Des consultations mémoire et un hôpital de jour accueillent les personnes âgées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Lons-le-Saunier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Lons-le-Saunier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Équipement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Répartition des lits</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Médecine : 176
 Chirurgie : 92
 Gynéco-obstétrique : 55
 Pédia-néonat : 28
